--- a/data/main-data/Restaurant_Test.xlsx
+++ b/data/main-data/Restaurant_Test.xlsx
@@ -5236,10 +5236,10 @@
     <t>সে খা্রাপ ছেলে।</t>
   </si>
   <si>
-    <t xml:space="preserve">আমি ভালো ছেলে, সে খা্রাপ ছেলে।। </t>
-  </si>
-  <si>
     <t>তুমি খা্রাপ ছেলে, সে খা্রাপ ছেলে।।</t>
+  </si>
+  <si>
+    <t>শুধুমাত্র,রিডামিং ফ্যাক্টর খাদ্য ছিল,পুরোপুরি ন্যায্য হওয়ার জন্য,  , যা গড়ের চেয়েও বেশি ছিল, কিন্তু অন্যান্য দুর্বলতাগুলির জন্য এটি তৈরি করা সম্ভব হয়নি।</t>
   </si>
 </sst>
 </file>
@@ -5646,8 +5646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q2060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5700,7 +5700,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="C2" t="s">
         <v>202</v>
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>204</v>
